--- a/Backend/Excel/Final_GraduationRate8yrs.xlsx
+++ b/Backend/Excel/Final_GraduationRate8yrs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bipularyal/Desktop/FISK_IPDES_Proj/Backend/Excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCE965DD-D801-A144-9551-4520D1B5A02D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBC915BB-87A1-9E43-AA17-13A34EAED8E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="33600" windowHeight="21000" xr2:uid="{F21ACA13-AE29-A648-9730-FBB29885E630}"/>
   </bookViews>
@@ -50,15 +50,6 @@
     <t> 129</t>
   </si>
   <si>
-    <t>4-year graduation rate</t>
-  </si>
-  <si>
-    <t>6-year graduation rate</t>
-  </si>
-  <si>
-    <t>8-year graduation rate</t>
-  </si>
-  <si>
     <t>YEAR</t>
   </si>
   <si>
@@ -134,13 +125,22 @@
     <t>Cohort</t>
   </si>
   <si>
-    <t>4-year graduation count</t>
-  </si>
-  <si>
-    <t>6-year graduation count</t>
-  </si>
-  <si>
-    <t>8-year graduation count</t>
+    <t>four year graduation count</t>
+  </si>
+  <si>
+    <t>six year graduation count</t>
+  </si>
+  <si>
+    <t>eight year graduation count</t>
+  </si>
+  <si>
+    <t>four year graduation rate</t>
+  </si>
+  <si>
+    <t>six year graduation rate</t>
+  </si>
+  <si>
+    <t>eight year graduation rate</t>
   </si>
 </sst>
 </file>
@@ -512,7 +512,7 @@
   <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -523,30 +523,30 @@
     <col min="8" max="8" width="21.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" ht="30" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>34</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
@@ -580,13 +580,13 @@
         <v>2011</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="E3" s="3">
         <v>113</v>
@@ -606,13 +606,13 @@
         <v>2012</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E4" s="3">
         <v>102</v>
@@ -632,13 +632,13 @@
         <v>2013</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E5" s="3">
         <v>97</v>
@@ -670,13 +670,13 @@
         <v>2015</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E7" s="3">
         <v>61</v>
@@ -696,13 +696,13 @@
         <v>2016</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="E8" s="3">
         <v>40</v>
@@ -722,13 +722,13 @@
         <v>2017</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E9" s="3">
         <v>47</v>
@@ -748,13 +748,13 @@
         <v>2018</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="E10" s="3">
         <v>74</v>
@@ -774,13 +774,13 @@
         <v>2019</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="E11" s="3">
         <v>57</v>
